--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sost-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sost-Lrp5.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N2">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O2">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P2">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q2">
-        <v>0.690271438074</v>
+        <v>1.08919850892</v>
       </c>
       <c r="R2">
-        <v>6.212442942666001</v>
+        <v>9.802786580280001</v>
       </c>
       <c r="S2">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="T2">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>34.790704</v>
       </c>
       <c r="O3">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P3">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q3">
         <v>0.591929037856</v>
@@ -635,10 +635,10 @@
         <v>5.327361340704</v>
       </c>
       <c r="S3">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="T3">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N4">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O4">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P4">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q4">
-        <v>0.4824755088260001</v>
+        <v>0.5407518956540001</v>
       </c>
       <c r="R4">
-        <v>4.342279579434001</v>
+        <v>4.866767060886001</v>
       </c>
       <c r="S4">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="T4">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N5">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O5">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P5">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q5">
-        <v>0.23350753709</v>
+        <v>0.254182745722</v>
       </c>
       <c r="R5">
-        <v>2.10156783381</v>
+        <v>2.287644711498</v>
       </c>
       <c r="S5">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="T5">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
     </row>
   </sheetData>
